--- a/assignments/hw2/HotelApp.xlsx
+++ b/assignments/hw2/HotelApp.xlsx
@@ -1,25 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucy-my.sharepoint.com/personal/ssofok02_ucy_ac_cy/Documents/EPL499/GitHub/cs499-fa22/assignments/hw2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_F25DC773A252ABDACC104828F919727E5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C89935-826B-4BC9-BF1E-585E9409C163}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+  <si>
+    <t>Connections</t>
+  </si>
+  <si>
+    <t>Latency 50th Percentile</t>
+  </si>
+  <si>
+    <t>Latency 75th Percentile</t>
+  </si>
+  <si>
+    <t>Latency 99th Percentile</t>
+  </si>
+  <si>
+    <t>Total Request</t>
+  </si>
+  <si>
+    <t>Request/Sec</t>
+  </si>
+  <si>
+    <t>Transer/Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7.57ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  22.44ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 181.20ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 182.47ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 183.12ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 182.99ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24.90ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  47.78ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  56.52ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 189.69ms</t>
+  </si>
+  <si>
+    <t>220.31ms</t>
+  </si>
+  <si>
+    <t>956.48ms</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +409,783 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>64.73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>63639</v>
+      </c>
+      <c r="F2">
+        <v>6358.01</v>
+      </c>
+      <c r="G2">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>29.27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>80107</v>
+      </c>
+      <c r="F3">
+        <v>8003.23</v>
+      </c>
+      <c r="G3">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>181.92</v>
+      </c>
+      <c r="D4">
+        <v>1160</v>
+      </c>
+      <c r="E4">
+        <v>7409</v>
+      </c>
+      <c r="F4">
+        <v>734.3</v>
+      </c>
+      <c r="G4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>183.89</v>
+      </c>
+      <c r="D5">
+        <v>1200</v>
+      </c>
+      <c r="E5">
+        <v>7228</v>
+      </c>
+      <c r="F5">
+        <v>716.44</v>
+      </c>
+      <c r="G5">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>183.61</v>
+      </c>
+      <c r="D6">
+        <v>1200</v>
+      </c>
+      <c r="E6">
+        <v>7265</v>
+      </c>
+      <c r="F6">
+        <v>719.4</v>
+      </c>
+      <c r="G6">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>183.46</v>
+      </c>
+      <c r="D7">
+        <v>1210</v>
+      </c>
+      <c r="E7">
+        <v>7292</v>
+      </c>
+      <c r="F7">
+        <v>722.02</v>
+      </c>
+      <c r="G7">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>82.46</v>
+      </c>
+      <c r="D8">
+        <v>1120</v>
+      </c>
+      <c r="E8">
+        <v>117960</v>
+      </c>
+      <c r="F8">
+        <v>11710.52</v>
+      </c>
+      <c r="G8">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="D9">
+        <v>1010</v>
+      </c>
+      <c r="E9">
+        <v>128544</v>
+      </c>
+      <c r="F9">
+        <v>12778.79</v>
+      </c>
+      <c r="G9">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>103.5</v>
+      </c>
+      <c r="D10">
+        <v>1170</v>
+      </c>
+      <c r="E10">
+        <v>95814</v>
+      </c>
+      <c r="F10">
+        <v>9511.8700000000008</v>
+      </c>
+      <c r="G10">
+        <v>15.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>190.99</v>
+      </c>
+      <c r="D11">
+        <v>1260</v>
+      </c>
+      <c r="E11">
+        <v>7057</v>
+      </c>
+      <c r="F11">
+        <v>699.26</v>
+      </c>
+      <c r="G11">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>6.77</v>
+      </c>
+      <c r="C15">
+        <v>10.93</v>
+      </c>
+      <c r="D15">
+        <v>51.01</v>
+      </c>
+      <c r="E15">
+        <v>134608</v>
+      </c>
+      <c r="F15">
+        <v>13447.1</v>
+      </c>
+      <c r="G15">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>200</v>
+      </c>
+      <c r="B16">
+        <v>110.63</v>
+      </c>
+      <c r="C16">
+        <v>168.33</v>
+      </c>
+      <c r="D16">
+        <v>186.77</v>
+      </c>
+      <c r="E16">
+        <v>15010</v>
+      </c>
+      <c r="F16">
+        <v>1498.97</v>
+      </c>
+      <c r="G16">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>300</v>
+      </c>
+      <c r="B17">
+        <v>30.23</v>
+      </c>
+      <c r="C17">
+        <v>97.99</v>
+      </c>
+      <c r="D17">
+        <v>1080</v>
+      </c>
+      <c r="E17">
+        <v>75753</v>
+      </c>
+      <c r="F17">
+        <v>7524.52</v>
+      </c>
+      <c r="G17">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>400</v>
+      </c>
+      <c r="B18">
+        <v>175.8</v>
+      </c>
+      <c r="C18">
+        <v>182.75</v>
+      </c>
+      <c r="D18">
+        <v>1220</v>
+      </c>
+      <c r="E18">
+        <v>14935</v>
+      </c>
+      <c r="F18">
+        <v>1479.81</v>
+      </c>
+      <c r="G18">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>500</v>
+      </c>
+      <c r="B19">
+        <v>183.17</v>
+      </c>
+      <c r="C19">
+        <v>185.54</v>
+      </c>
+      <c r="D19">
+        <v>1400</v>
+      </c>
+      <c r="E19">
+        <v>14600</v>
+      </c>
+      <c r="F19">
+        <v>1445.78</v>
+      </c>
+      <c r="G19">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>600</v>
+      </c>
+      <c r="B20">
+        <v>183.29</v>
+      </c>
+      <c r="C20">
+        <v>186.32</v>
+      </c>
+      <c r="D20">
+        <v>1410</v>
+      </c>
+      <c r="E20">
+        <v>14573</v>
+      </c>
+      <c r="F20">
+        <v>1444.32</v>
+      </c>
+      <c r="G20">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>700</v>
+      </c>
+      <c r="B21">
+        <v>23.43</v>
+      </c>
+      <c r="C21">
+        <v>87.66</v>
+      </c>
+      <c r="D21">
+        <v>1110</v>
+      </c>
+      <c r="E21">
+        <v>222051</v>
+      </c>
+      <c r="F21">
+        <v>22039.01</v>
+      </c>
+      <c r="G21">
+        <v>36.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>800</v>
+      </c>
+      <c r="B22">
+        <v>34.65</v>
+      </c>
+      <c r="C22">
+        <v>45.47</v>
+      </c>
+      <c r="D22">
+        <v>1030</v>
+      </c>
+      <c r="E22">
+        <v>185795</v>
+      </c>
+      <c r="F22">
+        <v>18433.509999999998</v>
+      </c>
+      <c r="G22">
+        <v>30.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>900</v>
+      </c>
+      <c r="B23">
+        <v>21.81</v>
+      </c>
+      <c r="C23">
+        <v>181.11</v>
+      </c>
+      <c r="D23">
+        <v>1260</v>
+      </c>
+      <c r="E23">
+        <v>105867</v>
+      </c>
+      <c r="F23">
+        <v>10503.15</v>
+      </c>
+      <c r="G23">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1000</v>
+      </c>
+      <c r="B24">
+        <v>177.14</v>
+      </c>
+      <c r="C24">
+        <v>189.55</v>
+      </c>
+      <c r="D24">
+        <v>1600</v>
+      </c>
+      <c r="E24">
+        <v>15117</v>
+      </c>
+      <c r="F24">
+        <v>1497.56</v>
+      </c>
+      <c r="G24">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>4.21</v>
+      </c>
+      <c r="C28">
+        <v>6.26</v>
+      </c>
+      <c r="D28">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="E28">
+        <v>185990</v>
+      </c>
+      <c r="F28">
+        <v>18413.560000000001</v>
+      </c>
+      <c r="G28">
+        <v>30.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>200</v>
+      </c>
+      <c r="B29">
+        <v>57.32</v>
+      </c>
+      <c r="C29">
+        <v>174.23</v>
+      </c>
+      <c r="D29">
+        <v>188.47</v>
+      </c>
+      <c r="E29">
+        <v>30235</v>
+      </c>
+      <c r="F29">
+        <v>2993.45</v>
+      </c>
+      <c r="G29">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30">
+        <v>124.76</v>
+      </c>
+      <c r="C30">
+        <v>177.31</v>
+      </c>
+      <c r="D30">
+        <f>109*10</f>
+        <v>1090</v>
+      </c>
+      <c r="E30">
+        <v>30204</v>
+      </c>
+      <c r="F30">
+        <v>2995.23</v>
+      </c>
+      <c r="G30">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>400</v>
+      </c>
+      <c r="B31">
+        <v>178.19</v>
+      </c>
+      <c r="C31">
+        <v>181.97</v>
+      </c>
+      <c r="D31">
+        <v>1210</v>
+      </c>
+      <c r="E31">
+        <v>24319</v>
+      </c>
+      <c r="F31">
+        <v>2416.0100000000002</v>
+      </c>
+      <c r="G31">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>500</v>
+      </c>
+      <c r="B32">
+        <v>179.02</v>
+      </c>
+      <c r="C32">
+        <v>183.8</v>
+      </c>
+      <c r="D32">
+        <v>1210</v>
+      </c>
+      <c r="E32">
+        <v>22239</v>
+      </c>
+      <c r="F32">
+        <v>2201.85</v>
+      </c>
+      <c r="G32">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>600</v>
+      </c>
+      <c r="B33">
+        <v>181.53</v>
+      </c>
+      <c r="C33">
+        <v>186.59</v>
+      </c>
+      <c r="D33">
+        <v>1220</v>
+      </c>
+      <c r="E33">
+        <v>30907</v>
+      </c>
+      <c r="F33">
+        <v>3061.56</v>
+      </c>
+      <c r="G33">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>700</v>
+      </c>
+      <c r="B34">
+        <v>14.03</v>
+      </c>
+      <c r="C34">
+        <v>100.57</v>
+      </c>
+      <c r="D34">
+        <v>1120</v>
+      </c>
+      <c r="E34">
+        <v>227397</v>
+      </c>
+      <c r="F34">
+        <v>22514.1</v>
+      </c>
+      <c r="G34">
+        <v>36.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>800</v>
+      </c>
+      <c r="B35">
+        <v>37.840000000000003</v>
+      </c>
+      <c r="C35">
+        <v>177.82</v>
+      </c>
+      <c r="D35">
+        <v>1390</v>
+      </c>
+      <c r="E35">
+        <v>42801</v>
+      </c>
+      <c r="F35">
+        <v>4243.72</v>
+      </c>
+      <c r="G35">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>900</v>
+      </c>
+      <c r="B36">
+        <v>182.37</v>
+      </c>
+      <c r="C36">
+        <v>185.1</v>
+      </c>
+      <c r="D36">
+        <v>1380</v>
+      </c>
+      <c r="E36">
+        <v>30183</v>
+      </c>
+      <c r="F36">
+        <v>2990.23</v>
+      </c>
+      <c r="G36">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>1000</v>
+      </c>
+      <c r="B37">
+        <v>184.81</v>
+      </c>
+      <c r="C37">
+        <v>189.7</v>
+      </c>
+      <c r="D37">
+        <v>1400</v>
+      </c>
+      <c r="E37">
+        <v>29937</v>
+      </c>
+      <c r="F37">
+        <v>2968.23</v>
+      </c>
+      <c r="G37">
+        <v>4.87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assignments/hw2/HotelApp.xlsx
+++ b/assignments/hw2/HotelApp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucy-my.sharepoint.com/personal/ssofok02_ucy_ac_cy/Documents/EPL499/GitHub/cs499-fa22/assignments/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_F25DC773A252ABDACC104828F919727E5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C89935-826B-4BC9-BF1E-585E9409C163}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="11_F25DC773A252ABDACC104828F919727E5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DDB115B-6F11-49D9-9421-8003350EF03F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>Connections</t>
   </si>
@@ -57,42 +57,6 @@
   </si>
   <si>
     <t>Transer/Sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   7.57ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  22.44ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 181.20ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 182.47ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 183.12ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 182.99ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24.90ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  47.78ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  56.52ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 189.69ms</t>
-  </si>
-  <si>
-    <t>220.31ms</t>
-  </si>
-  <si>
-    <t>956.48ms</t>
   </si>
 </sst>
 </file>
@@ -145,6 +109,3839 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>50th Percentile Latency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35E8-4041-BFFC-04441EA656B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.81</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35E8-4041-BFFC-04441EA656B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>182.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35E8-4041-BFFC-04441EA656B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-35E8-4041-BFFC-04441EA656B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$54:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>173.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>178.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-35E8-4041-BFFC-04441EA656B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1697331360"/>
+        <c:axId val="1697327616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1697331360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1697327616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1697327616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1697331360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6358.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8003.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>734.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>716.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>719.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>722.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11710.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12778.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9511.8700000000008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>699.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-557C-428B-AB0C-B3C0FABF3F3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13447.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1498.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7524.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1479.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1445.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1444.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22039.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18433.509999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10503.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1497.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-557C-428B-AB0C-B3C0FABF3F3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24403.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2299.5100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2236.2800000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2216.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2198.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2201.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27544.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8811.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2202.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2168.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-557C-428B-AB0C-B3C0FABF3F3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$41:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18413.560000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2993.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2995.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2416.0100000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2201.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3061.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22514.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4243.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2990.23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2968.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-557C-428B-AB0C-B3C0FABF3F3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$54:$F$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>23410.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3760.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3687.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2995.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2344.1799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2220.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20711.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3517.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3749.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3732.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-557C-428B-AB0C-B3C0FABF3F3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="81785696"/>
+        <c:axId val="81781952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="81785696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81781952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81781952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81785696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>99th Percentile Latency </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>220.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>956.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3696-4FC1-8F95-44646713DAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3696-4FC1-8F95-44646713DAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>64.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3696-4FC1-8F95-44646713DAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$41:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>64.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3696-4FC1-8F95-44646713DAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5WS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$54:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3696-4FC1-8F95-44646713DAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="81747840"/>
+        <c:axId val="81746176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="81747840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81746176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81746176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81747840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11904</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3D86B5-4019-91E3-4E80-7CD56C33529A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640555</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94DF9DB8-F348-71C9-2CFE-E7AC152AC0FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621504</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D18801F-0B18-39A8-70F3-5326E686BE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,10 +4207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -452,14 +4249,14 @@
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2">
+        <v>7.57</v>
       </c>
       <c r="C2">
         <v>64.73</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
+      <c r="D2">
+        <v>220.31</v>
       </c>
       <c r="E2">
         <v>63639</v>
@@ -475,14 +4272,14 @@
       <c r="A3">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="B3">
+        <v>22.44</v>
       </c>
       <c r="C3">
         <v>29.27</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
+      <c r="D3">
+        <v>956.48</v>
       </c>
       <c r="E3">
         <v>80107</v>
@@ -498,8 +4295,8 @@
       <c r="A4">
         <v>300</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>181.2</v>
       </c>
       <c r="C4">
         <v>181.92</v>
@@ -521,8 +4318,8 @@
       <c r="A5">
         <v>400</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>182.47</v>
       </c>
       <c r="C5">
         <v>183.89</v>
@@ -544,8 +4341,8 @@
       <c r="A6">
         <v>500</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6">
+        <v>183.12</v>
       </c>
       <c r="C6">
         <v>183.61</v>
@@ -567,8 +4364,8 @@
       <c r="A7">
         <v>600</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B7">
+        <v>182.99</v>
       </c>
       <c r="C7">
         <v>183.46</v>
@@ -590,8 +4387,8 @@
       <c r="A8">
         <v>700</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="B8">
+        <v>24.9</v>
       </c>
       <c r="C8">
         <v>82.46</v>
@@ -613,8 +4410,8 @@
       <c r="A9">
         <v>800</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="B9">
+        <v>47.78</v>
       </c>
       <c r="C9">
         <v>74.510000000000005</v>
@@ -636,8 +4433,8 @@
       <c r="A10">
         <v>900</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
+      <c r="B10">
+        <v>56.52</v>
       </c>
       <c r="C10">
         <v>103.5</v>
@@ -659,8 +4456,8 @@
       <c r="A11">
         <v>1000</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11">
+        <v>189.69</v>
       </c>
       <c r="C11">
         <v>190.99</v>
@@ -968,13 +4765,13 @@
         <v>64.739999999999995</v>
       </c>
       <c r="E28">
-        <v>185990</v>
+        <v>246489</v>
       </c>
       <c r="F28">
-        <v>18413.560000000001</v>
+        <v>24403.9</v>
       </c>
       <c r="G28">
-        <v>30.24</v>
+        <v>40.08</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -988,16 +4785,16 @@
         <v>174.23</v>
       </c>
       <c r="D29">
-        <v>188.47</v>
+        <v>1100</v>
       </c>
       <c r="E29">
-        <v>30235</v>
+        <v>23020</v>
       </c>
       <c r="F29">
-        <v>2993.45</v>
+        <v>2299.5100000000002</v>
       </c>
       <c r="G29">
-        <v>4.92</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1015,13 +4812,13 @@
         <v>1090</v>
       </c>
       <c r="E30">
-        <v>30204</v>
+        <v>22554</v>
       </c>
       <c r="F30">
-        <v>2995.23</v>
+        <v>2236.2800000000002</v>
       </c>
       <c r="G30">
-        <v>4.92</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
@@ -1038,13 +4835,13 @@
         <v>1210</v>
       </c>
       <c r="E31">
-        <v>24319</v>
+        <v>22374</v>
       </c>
       <c r="F31">
-        <v>2416.0100000000002</v>
+        <v>2216.33</v>
       </c>
       <c r="G31">
-        <v>3.97</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
@@ -1061,13 +4858,13 @@
         <v>1210</v>
       </c>
       <c r="E32">
-        <v>22239</v>
+        <v>22179</v>
       </c>
       <c r="F32">
-        <v>2201.85</v>
+        <v>2198.83</v>
       </c>
       <c r="G32">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
@@ -1084,13 +4881,13 @@
         <v>1220</v>
       </c>
       <c r="E33">
-        <v>30907</v>
+        <v>22219</v>
       </c>
       <c r="F33">
-        <v>3061.56</v>
+        <v>2201.63</v>
       </c>
       <c r="G33">
-        <v>5.03</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1107,13 +4904,13 @@
         <v>1120</v>
       </c>
       <c r="E34">
-        <v>227397</v>
+        <v>277754</v>
       </c>
       <c r="F34">
-        <v>22514.1</v>
+        <v>27544.880000000001</v>
       </c>
       <c r="G34">
-        <v>36.97</v>
+        <v>45.23</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
@@ -1130,13 +4927,13 @@
         <v>1390</v>
       </c>
       <c r="E35">
-        <v>42801</v>
+        <v>89000</v>
       </c>
       <c r="F35">
-        <v>4243.72</v>
+        <v>8811.59</v>
       </c>
       <c r="G35">
-        <v>6.97</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1153,13 +4950,13 @@
         <v>1380</v>
       </c>
       <c r="E36">
-        <v>30183</v>
+        <v>22208</v>
       </c>
       <c r="F36">
-        <v>2990.23</v>
+        <v>2202.62</v>
       </c>
       <c r="G36">
-        <v>4.91</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
@@ -1176,16 +4973,523 @@
         <v>1400</v>
       </c>
       <c r="E37">
+        <v>21863</v>
+      </c>
+      <c r="F37">
+        <v>2168.85</v>
+      </c>
+      <c r="G37">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <v>5.84</v>
+      </c>
+      <c r="C41">
+        <v>13.76</v>
+      </c>
+      <c r="D41">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="E41">
+        <v>185990</v>
+      </c>
+      <c r="F41">
+        <v>18413.560000000001</v>
+      </c>
+      <c r="G41">
+        <v>30.24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>200</v>
+      </c>
+      <c r="B42">
+        <v>68.06</v>
+      </c>
+      <c r="C42">
+        <v>120.99</v>
+      </c>
+      <c r="D42">
+        <v>188.47</v>
+      </c>
+      <c r="E42">
+        <v>30235</v>
+      </c>
+      <c r="F42">
+        <v>2993.45</v>
+      </c>
+      <c r="G42">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>300</v>
+      </c>
+      <c r="B43">
+        <v>127.14</v>
+      </c>
+      <c r="C43">
+        <v>176.42</v>
+      </c>
+      <c r="D43">
+        <v>1090</v>
+      </c>
+      <c r="E43">
+        <v>30204</v>
+      </c>
+      <c r="F43">
+        <v>2995.23</v>
+      </c>
+      <c r="G43">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>400</v>
+      </c>
+      <c r="B44">
+        <v>176.29</v>
+      </c>
+      <c r="C44">
+        <v>182.62</v>
+      </c>
+      <c r="D44">
+        <v>1210</v>
+      </c>
+      <c r="E44">
+        <v>24319</v>
+      </c>
+      <c r="F44">
+        <v>2416.0100000000002</v>
+      </c>
+      <c r="G44">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>500</v>
+      </c>
+      <c r="B45">
+        <v>180.39</v>
+      </c>
+      <c r="C45">
+        <v>184.51</v>
+      </c>
+      <c r="D45">
+        <v>1210</v>
+      </c>
+      <c r="E45">
+        <v>22239</v>
+      </c>
+      <c r="F45">
+        <v>2201.85</v>
+      </c>
+      <c r="G45">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>600</v>
+      </c>
+      <c r="B46">
+        <v>176.59</v>
+      </c>
+      <c r="C46">
+        <v>185.05</v>
+      </c>
+      <c r="D46">
+        <v>1220</v>
+      </c>
+      <c r="E46">
+        <v>30907</v>
+      </c>
+      <c r="F46">
+        <v>3061.56</v>
+      </c>
+      <c r="G46">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>700</v>
+      </c>
+      <c r="B47">
+        <v>13.14</v>
+      </c>
+      <c r="C47">
+        <v>171.44</v>
+      </c>
+      <c r="D47">
+        <v>1120</v>
+      </c>
+      <c r="E47">
+        <v>227397</v>
+      </c>
+      <c r="F47">
+        <v>22514.1</v>
+      </c>
+      <c r="G47">
+        <v>36.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>800</v>
+      </c>
+      <c r="B48">
+        <v>106.49</v>
+      </c>
+      <c r="C48">
+        <v>176.13</v>
+      </c>
+      <c r="D48">
+        <v>1390</v>
+      </c>
+      <c r="E48">
+        <v>42801</v>
+      </c>
+      <c r="F48">
+        <v>4243.72</v>
+      </c>
+      <c r="G48">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>900</v>
+      </c>
+      <c r="B49">
+        <v>178.71</v>
+      </c>
+      <c r="C49">
+        <v>201.87</v>
+      </c>
+      <c r="D49">
+        <v>1380</v>
+      </c>
+      <c r="E49">
+        <v>30183</v>
+      </c>
+      <c r="F49">
+        <v>2990.23</v>
+      </c>
+      <c r="G49">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>1000</v>
+      </c>
+      <c r="B50">
+        <v>181.55</v>
+      </c>
+      <c r="C50">
+        <v>186.85</v>
+      </c>
+      <c r="D50">
+        <v>1400</v>
+      </c>
+      <c r="E50">
         <v>29937</v>
       </c>
-      <c r="F37">
+      <c r="F50">
         <v>2968.23</v>
       </c>
-      <c r="G37">
+      <c r="G50">
         <v>4.87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>4.07</v>
+      </c>
+      <c r="C54">
+        <v>10.87</v>
+      </c>
+      <c r="D54">
+        <v>68.58</v>
+      </c>
+      <c r="E54">
+        <v>236450</v>
+      </c>
+      <c r="F54">
+        <v>23410.21</v>
+      </c>
+      <c r="G54">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>200</v>
+      </c>
+      <c r="B55">
+        <v>56.61</v>
+      </c>
+      <c r="C55">
+        <v>95.93</v>
+      </c>
+      <c r="D55">
+        <v>138.66</v>
+      </c>
+      <c r="E55">
+        <v>37643</v>
+      </c>
+      <c r="F55">
+        <v>3760.19</v>
+      </c>
+      <c r="G55">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>300</v>
+      </c>
+      <c r="B56">
+        <v>92.04</v>
+      </c>
+      <c r="C56">
+        <v>170.57</v>
+      </c>
+      <c r="D56">
+        <v>1020</v>
+      </c>
+      <c r="E56">
+        <v>37235</v>
+      </c>
+      <c r="F56">
+        <v>3687.79</v>
+      </c>
+      <c r="G56">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>400</v>
+      </c>
+      <c r="B57">
+        <v>176.99</v>
+      </c>
+      <c r="C57">
+        <v>183.63</v>
+      </c>
+      <c r="D57">
+        <v>1200</v>
+      </c>
+      <c r="E57">
+        <v>30236</v>
+      </c>
+      <c r="F57">
+        <v>2995.87</v>
+      </c>
+      <c r="G57">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>500</v>
+      </c>
+      <c r="B58">
+        <v>180.77</v>
+      </c>
+      <c r="C58">
+        <v>185.28</v>
+      </c>
+      <c r="D58">
+        <v>1210</v>
+      </c>
+      <c r="E58">
+        <v>23625</v>
+      </c>
+      <c r="F58">
+        <v>2344.1799999999998</v>
+      </c>
+      <c r="G58">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>600</v>
+      </c>
+      <c r="B59">
+        <v>181.16</v>
+      </c>
+      <c r="C59">
+        <v>185.01</v>
+      </c>
+      <c r="D59">
+        <v>1340</v>
+      </c>
+      <c r="E59">
+        <v>22422</v>
+      </c>
+      <c r="F59">
+        <v>2220.79</v>
+      </c>
+      <c r="G59">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>700</v>
+      </c>
+      <c r="B60">
+        <v>14.29</v>
+      </c>
+      <c r="C60">
+        <v>178.15</v>
+      </c>
+      <c r="D60">
+        <v>1220</v>
+      </c>
+      <c r="E60">
+        <v>208787</v>
+      </c>
+      <c r="F60">
+        <v>20711.68</v>
+      </c>
+      <c r="G60">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>800</v>
+      </c>
+      <c r="B61">
+        <v>172.37</v>
+      </c>
+      <c r="C61">
+        <v>181.07</v>
+      </c>
+      <c r="D61">
+        <v>1400</v>
+      </c>
+      <c r="E61">
+        <v>35479</v>
+      </c>
+      <c r="F61">
+        <v>3517.42</v>
+      </c>
+      <c r="G61">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>900</v>
+      </c>
+      <c r="B62">
+        <v>173.52</v>
+      </c>
+      <c r="C62">
+        <v>182.02</v>
+      </c>
+      <c r="D62">
+        <v>1400</v>
+      </c>
+      <c r="E62">
+        <v>37791</v>
+      </c>
+      <c r="F62">
+        <v>3749.22</v>
+      </c>
+      <c r="G62">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>1000</v>
+      </c>
+      <c r="B63">
+        <v>178.42</v>
+      </c>
+      <c r="C63">
+        <v>186.84</v>
+      </c>
+      <c r="D63">
+        <v>1400</v>
+      </c>
+      <c r="E63">
+        <v>37614</v>
+      </c>
+      <c r="F63">
+        <v>3732.95</v>
+      </c>
+      <c r="G63">
+        <v>6.13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/assignments/hw2/HotelApp.xlsx
+++ b/assignments/hw2/HotelApp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,7 +176,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -659,7 +659,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1697327616"/>
@@ -718,7 +718,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1697331360"/>
@@ -760,7 +760,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -797,7 +797,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -873,7 +873,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1356,7 +1356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81781952"/>
@@ -1415,7 +1415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81785696"/>
@@ -1457,7 +1457,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1494,7 +1494,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1570,7 +1570,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2053,7 +2053,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81746176"/>
@@ -2112,7 +2112,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81747840"/>
@@ -2154,7 +2154,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2191,7 +2191,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4213,16 +4213,16 @@
       <selection activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>100</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>13.14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>300</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>400</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>500</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>600</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>700</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>800</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>900</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>15.62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>100</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>200</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>300</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>400</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>500</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>600</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>700</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>36.19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>800</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>30.27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>900</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1000</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>100</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>40.08</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>200</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>300</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>400</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>500</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>600</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>700</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>45.23</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>800</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>14.47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>900</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>1000</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>100</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>30.24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>200</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>300</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>400</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>500</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>600</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>700</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>36.97</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>800</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>6.97</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>900</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>1000</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>100</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>38.44</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>200</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>300</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>400</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>500</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>600</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>700</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>34.01</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>800</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>900</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>1000</v>
       </c>
